--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Rent</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Flight</t>
   </si>
   <si>
-    <t>Jacket</t>
-  </si>
-  <si>
     <t>Trolley</t>
   </si>
   <si>
@@ -237,10 +234,7 @@
     <t>August</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaggu </t>
-  </si>
-  <si>
-    <t>Yokesh</t>
+    <t>Shoes</t>
   </si>
 </sst>
 </file>
@@ -382,8 +376,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -391,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -403,7 +401,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,14 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -714,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,85 +737,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="K2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="R2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="14"/>
+      <c r="A2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="K2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="R2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="24"/>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="2">
-        <f>SUM(B16:H16)+1000</f>
-        <v>6376</v>
+        <f>SUM(B16:I16)</f>
+        <v>6327</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8">
         <f>2394+350</f>
@@ -832,20 +834,20 @@
       <c r="F4" s="8">
         <v>2364</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="16">
         <v>2364</v>
       </c>
       <c r="H4" s="8">
         <v>2364</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>2364</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M4" s="1">
         <v>140</v>
@@ -854,17 +856,17 @@
         <v>180</v>
       </c>
       <c r="O4" s="1">
-        <f>SUM(L4:N4)</f>
-        <v>570</v>
-      </c>
-      <c r="R4" s="1" t="s">
+        <f t="shared" ref="O4:O9" si="0">SUM(L4:N4)</f>
+        <v>670</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="1">
-        <v>1600</v>
+      <c r="S4" s="3">
+        <v>1620</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -874,10 +876,11 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="1">
         <v>150</v>
@@ -889,22 +892,22 @@
         <v>120</v>
       </c>
       <c r="O5" s="1">
-        <f>SUM(L5:N5)</f>
+        <f t="shared" si="0"/>
         <v>570</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>575</v>
@@ -913,21 +916,21 @@
         <v>650</v>
       </c>
       <c r="D6" s="1">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E6" s="1">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="F6" s="1">
         <v>650</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="17">
         <v>600</v>
       </c>
       <c r="H6" s="1">
         <v>400</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="6">
         <v>400</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -943,17 +946,17 @@
         <v>100</v>
       </c>
       <c r="O6" s="1">
-        <f>SUM(L6:N6)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S6" s="1">
         <v>120</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -975,17 +978,17 @@
       <c r="F7" s="1">
         <v>300</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="17">
         <v>300</v>
       </c>
       <c r="H7" s="1">
         <v>300</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="6">
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="1">
         <v>50</v>
@@ -997,22 +1000,22 @@
         <v>30</v>
       </c>
       <c r="O7" s="1">
-        <f>SUM(L7:N7)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" s="1">
         <v>150</v>
       </c>
       <c r="U7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
@@ -1029,17 +1032,17 @@
       <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="17">
         <v>100</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="6">
         <v>100</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="1">
         <v>50</v>
@@ -1051,22 +1054,22 @@
         <v>30</v>
       </c>
       <c r="O8" s="1">
-        <f>SUM(L8:N8)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S8" s="1">
         <v>200</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>13</v>
@@ -1083,20 +1086,20 @@
       <c r="F9" s="1">
         <v>13</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="17">
         <v>13</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="6">
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M9" s="3">
         <v>130</v>
@@ -1105,22 +1108,22 @@
         <v>100</v>
       </c>
       <c r="O9" s="1">
-        <f>SUM(L9:N9)</f>
-        <v>430</v>
+        <f t="shared" si="0"/>
+        <v>580</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>688</v>
@@ -1137,13 +1140,13 @@
       <c r="F10" s="1">
         <v>688</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="17">
         <v>688</v>
       </c>
       <c r="H10" s="1">
         <v>688</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="6">
         <v>688</v>
       </c>
       <c r="K10" s="1"/>
@@ -1152,15 +1155,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S10" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="6">
         <v>950</v>
@@ -1169,12 +1172,13 @@
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
         <f>SUM(L4:L9)</f>
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="M11" s="1">
         <f>SUM(M4:M9)</f>
@@ -1186,27 +1190,28 @@
       </c>
       <c r="O11" s="2">
         <f>L11+M11+N11</f>
-        <v>2130</v>
+        <v>2380</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S11" s="10">
         <f>SUM(S4:S10)</f>
-        <v>2400</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1214,16 +1219,16 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
       <c r="R12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S12" s="2">
         <f>S3-SUM(S4:S10)</f>
-        <v>3976</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="6">
         <v>90</v>
@@ -1232,8 +1237,9 @@
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1245,7 +1251,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -1262,10 +1268,13 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="17">
         <v>12</v>
       </c>
       <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1">
         <v>12</v>
       </c>
       <c r="K14" s="4"/>
@@ -1277,59 +1286,67 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <f t="shared" ref="B16:H16" si="0">B4-SUM(B6:B14)</f>
+        <f t="shared" ref="B16:H16" si="1">B4-SUM(B6:B14)</f>
         <v>66</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>575</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>581</v>
+        <f t="shared" si="1"/>
+        <v>631</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>2051</v>
+        <f t="shared" si="1"/>
+        <v>2101</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>851</v>
       </c>
+      <c r="I16" s="1">
+        <f>SUM(I4-(I6+I7+I8+I9+I10 + I14))</f>
+        <v>851</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="16" t="s">
-        <v>23</v>
+      <c r="L18" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="K20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="17">
+      <c r="L20" s="12">
         <v>450</v>
       </c>
     </row>
@@ -1337,94 +1354,94 @@
       <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="13">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="14">
+        <v>48</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="14">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="22">
-        <v>48</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="B24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14">
+        <v>75</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="12">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="22">
-        <v>63</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="22" t="s">
+      <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="22">
-        <v>75</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="17">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="C25" s="14">
+        <v>54</v>
+      </c>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="22">
-        <v>54</v>
-      </c>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="22">
+      <c r="C26" s="14">
         <v>90</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="13">
         <f>SUM(L19:L24)</f>
         <v>1340</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <f>26*3</f>
@@ -1433,39 +1450,33 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
       </c>
       <c r="C29">
         <f>51</f>
         <v>51</v>
       </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
       </c>
       <c r="C30">
         <v>105</v>
       </c>
-      <c r="F30" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
       </c>
       <c r="C31">
         <v>39</v>
@@ -1473,10 +1484,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
       </c>
       <c r="C32">
         <v>60</v>
@@ -1484,7 +1495,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <f>SUM(C28:C32)</f>
